--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEBOJYBH\eclipse-workspace\Sprint2\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F24E3BB-6E0A-4CA1-9ABD-E30F7788620C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D73712A-EBF0-41BA-99A6-C4367961142C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>first_name</t>
   </si>
@@ -451,7 +451,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -472,14 +472,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
